--- a/sample.trans.xlsx
+++ b/sample.trans.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<zdef-1181112247:sst xmlns="" xmlns:zdef-1181112247="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<zdef-1961530457:sst xmlns="" xmlns:zdef-1961530457="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <t>Lorem</t>
   </si>
@@ -242,7 +242,7 @@
       <t>dog</t>
     </r>
   </si>
-</zdef-1181112247:sst>
+</zdef-1961530457:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
